--- a/Lane-Change/test/Simulation_Results.xlsx
+++ b/Lane-Change/test/Simulation_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>AttackType</t>
   </si>
@@ -254,6 +254,1374 @@
   </si>
   <si>
     <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>VEL</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
   </si>
 </sst>
 </file>
@@ -299,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H133"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="true"/>
@@ -308,7 +1676,7 @@
     <col min="4" max="4" width="7.046875" customWidth="true"/>
     <col min="5" max="5" width="13.82421875" customWidth="true"/>
     <col min="6" max="6" width="16.15625" customWidth="true"/>
-    <col min="7" max="7" width="13.37890625" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
     <col min="8" max="8" width="17.046875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -806,6 +2174,2970 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.0042000000000007543</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.26040742203358008</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.0041242995728477108</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.0070948186841944235</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.0042000000000007543</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.26040742203358008</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.0041242995728477108</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.0070948186841944235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.0042000000000007552</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.2604069300353834</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.0040997732836861424</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.0069429241095608973</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.0042000000000007552</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.25639130441030294</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.28982881690789603</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.0045930091256575498</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.2604069300353834</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.0040997732836861424</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.0069429241095608973</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.0042000000000014647</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.23669090987897046</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.0025026826960617295</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.0045929311316407154</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.26041078018984615</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.0036622983149870304</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.0063382099709370912</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.0042000000000014647</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.23606465987897082</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.027550936295204942</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.0045929311316407154</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.26041028115976034</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0.0037175407856493803</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.0064041528508373621</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.0042000000000014647</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.23669090987897046</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.0025026826960617508</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.0045929311316407154</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.26041078018984615</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.003662298314987053</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.0063382099709370877</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.0042000000000007613</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.24360574292849735</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0.26212724784294644</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.0045926332886708256</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.26041044394446189</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0.0045237917306062267</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.0083165520070952719</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.26538887623858837</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0.0042000000000014647</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.23669090987897046</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.0025026826960617182</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.0045929311316407154</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.26041078018984615</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0.0036622983149870547</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.006338209970937092</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.29696520053274872</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0.016909800563990812</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.0079407470864891749</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="0">
+        <v>1.6567377355939572</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0">
+        <v>0.01181286884580404</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.010179279847380384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0.29044223394445501</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0.010865737689128756</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.010532614046982034</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.29696520053274872</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0">
+        <v>0.016909800563990812</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.0079407470864891767</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" s="0">
+        <v>3.5892024473958393</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0">
+        <v>0.012260183253337336</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.010217112047947008</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.29044978470639243</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0.009819025623665845</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.0096238492703737567</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.29696520053274872</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0.016909800563990812</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.0079407470864891767</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="0">
+        <v>3.7049237447809049</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0">
+        <v>0.01229170998337154</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.010266754417867995</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0.29044986443509924</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0">
+        <v>0.0098190786521623885</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.0096228523319654962</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.29696520053274872</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0.016909800563990812</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.0079407470864891767</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3.5892024473958393</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0.012260183253337336</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.010217112047947008</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.29044978470639243</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0">
+        <v>0.009819025623665845</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.0096238492703737567</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.29696520053274872</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0.016909800563990812</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.0079407470864891767</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="0">
+        <v>4.322255789727901</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0">
+        <v>0.012175058019058068</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.010255586604289553</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0.29044965281049095</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0">
+        <v>0.0098189058411553929</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.0096249597218591026</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.29696520053274872</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0</v>
+      </c>
+      <c r="G59" s="0">
+        <v>0.016909800563990812</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.0079407470864891767</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="0">
+        <v>3.5892024473958384</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0">
+        <v>0.012260183253337336</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.010217112047947008</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.29044978470639243</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0">
+        <v>0.009819025623665845</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.0096238492703737567</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0">
+        <v>0.0042000000000013017</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.64529838321059507</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0</v>
+      </c>
+      <c r="G63" s="0">
+        <v>0.0032031980428828834</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.0053307089609012552</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="0">
+        <v>0.25786187149599299</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0">
+        <v>0.0051830899777491378</v>
+      </c>
+      <c r="H64" s="0">
+        <v>0.0092696919380069707</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F65" s="0">
+        <v>0</v>
+      </c>
+      <c r="G65" s="0">
+        <v>0.0042000000000034189</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.23676673580906274</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0</v>
+      </c>
+      <c r="G66" s="0">
+        <v>0.0026060531702238217</v>
+      </c>
+      <c r="H66" s="0">
+        <v>0.0041266593420345842</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.25793375940063451</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0.0030777131466064142</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0.0053537339313692407</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0.0042000000000022748</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0.27086922546739295</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0.0030700220152674713</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0.0051721444426318305</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.25792934934522022</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0">
+        <v>0.0045358480730543242</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0.0081038241459096948</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0">
+        <v>0.0042000000000034189</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0.23676673580906274</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0">
+        <v>0.0026060531702238217</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0.0041266593420345842</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0.25793375940063451</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0">
+        <v>0.0030777131466064142</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0.0053537339313692407</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0</v>
+      </c>
+      <c r="G74" s="0">
+        <v>0.0042000000000013268</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0.49707543795418996</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0</v>
+      </c>
+      <c r="G75" s="0">
+        <v>0.003133855838765924</v>
+      </c>
+      <c r="H75" s="0">
+        <v>0.0053005144869179522</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0.25791323665044591</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0">
+        <v>0.0049881799893748873</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0.009303072759853908</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0</v>
+      </c>
+      <c r="G77" s="0">
+        <v>0.0042000000000034189</v>
+      </c>
+      <c r="H77" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0.23676673580906274</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0</v>
+      </c>
+      <c r="G78" s="0">
+        <v>0.0026060531702238217</v>
+      </c>
+      <c r="H78" s="0">
+        <v>0.0041266593420345842</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0.25793375940063451</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0</v>
+      </c>
+      <c r="G79" s="0">
+        <v>0.0030777131466064142</v>
+      </c>
+      <c r="H79" s="0">
+        <v>0.0053537339313692407</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0">
+        <v>0.0042000000000013658</v>
+      </c>
+      <c r="H80" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0.30376442163761402</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0">
+        <v>0.066895053935666401</v>
+      </c>
+      <c r="H81" s="0">
+        <v>0.36076560709198263</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0.25787312392527556</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0">
+        <v>0.0051121951858540101</v>
+      </c>
+      <c r="H82" s="0">
+        <v>0.0091054282012684416</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0</v>
+      </c>
+      <c r="G83" s="0">
+        <v>0.0042000000000034189</v>
+      </c>
+      <c r="H83" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0.23676673580906274</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0</v>
+      </c>
+      <c r="G84" s="0">
+        <v>0.0026060531702238217</v>
+      </c>
+      <c r="H84" s="0">
+        <v>0.0041266593420345816</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0.25793375940063451</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0</v>
+      </c>
+      <c r="G85" s="0">
+        <v>0.0030777131466064142</v>
+      </c>
+      <c r="H85" s="0">
+        <v>0.0053537339313692407</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0</v>
+      </c>
+      <c r="G86" s="0">
+        <v>0.0042000000000016252</v>
+      </c>
+      <c r="H86" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.23245615327811131</v>
+      </c>
+      <c r="F87" s="0">
+        <v>0</v>
+      </c>
+      <c r="G87" s="0">
+        <v>0.010888947329611537</v>
+      </c>
+      <c r="H87" s="0">
+        <v>0.14939675628489535</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.2578851110894369</v>
+      </c>
+      <c r="F88" s="0">
+        <v>0</v>
+      </c>
+      <c r="G88" s="0">
+        <v>0.0052205030288702608</v>
+      </c>
+      <c r="H88" s="0">
+        <v>0.0093093411442171734</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F89" s="0">
+        <v>0</v>
+      </c>
+      <c r="G89" s="0">
+        <v>0.0042000000000034189</v>
+      </c>
+      <c r="H89" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.23676673580906274</v>
+      </c>
+      <c r="F90" s="0">
+        <v>0</v>
+      </c>
+      <c r="G90" s="0">
+        <v>0.0026060531702238217</v>
+      </c>
+      <c r="H90" s="0">
+        <v>0.0041266593420345816</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.25793375940063451</v>
+      </c>
+      <c r="F91" s="0">
+        <v>0</v>
+      </c>
+      <c r="G91" s="0">
+        <v>0.0030777131466064142</v>
+      </c>
+      <c r="H91" s="0">
+        <v>0.0053537339313692407</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F92" s="0">
+        <v>0</v>
+      </c>
+      <c r="G92" s="0">
+        <v>0.0042000000000027666</v>
+      </c>
+      <c r="H92" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0.23674173713502453</v>
+      </c>
+      <c r="F93" s="0">
+        <v>0</v>
+      </c>
+      <c r="G93" s="0">
+        <v>0.0059128313041838581</v>
+      </c>
+      <c r="H93" s="0">
+        <v>0.098463958625668244</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0.25792535730522853</v>
+      </c>
+      <c r="F94" s="0">
+        <v>0</v>
+      </c>
+      <c r="G94" s="0">
+        <v>0.0047190342489947983</v>
+      </c>
+      <c r="H94" s="0">
+        <v>0.0097967690687205695</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0.26538887623858609</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0</v>
+      </c>
+      <c r="G95" s="0">
+        <v>0.0042000000000034189</v>
+      </c>
+      <c r="H95" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0.23676673580906274</v>
+      </c>
+      <c r="F96" s="0">
+        <v>0</v>
+      </c>
+      <c r="G96" s="0">
+        <v>0.0026060531702238217</v>
+      </c>
+      <c r="H96" s="0">
+        <v>0.0041266593420345825</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0.25793375940063451</v>
+      </c>
+      <c r="F97" s="0">
+        <v>0</v>
+      </c>
+      <c r="G97" s="0">
+        <v>0.0030777131466064142</v>
+      </c>
+      <c r="H97" s="0">
+        <v>0.0053537339313692407</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0.29723666746669908</v>
+      </c>
+      <c r="F98" s="0">
+        <v>0</v>
+      </c>
+      <c r="G98" s="0">
+        <v>0.0050000000000023793</v>
+      </c>
+      <c r="H98" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0.26231924642056764</v>
+      </c>
+      <c r="F99" s="0">
+        <v>0</v>
+      </c>
+      <c r="G99" s="0">
+        <v>0.040651595304364137</v>
+      </c>
+      <c r="H99" s="0">
+        <v>0.27809690306608104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.23953724265135865</v>
+      </c>
+      <c r="F100" s="0">
+        <v>0</v>
+      </c>
+      <c r="G100" s="0">
+        <v>0.010899598266607602</v>
+      </c>
+      <c r="H100" s="0">
+        <v>0.0012868310387820969</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.29723666746669908</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0</v>
+      </c>
+      <c r="G101" s="0">
+        <v>0.005000000000006625</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.25848198767893904</v>
+      </c>
+      <c r="F102" s="0">
+        <v>0</v>
+      </c>
+      <c r="G102" s="0">
+        <v>0.012391280449473739</v>
+      </c>
+      <c r="H102" s="0">
+        <v>0.0028151621618379779</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.23953724766311477</v>
+      </c>
+      <c r="F103" s="0">
+        <v>0</v>
+      </c>
+      <c r="G103" s="0">
+        <v>0.010899705234745002</v>
+      </c>
+      <c r="H103" s="0">
+        <v>0.0012854417448145293</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.29723666746669908</v>
+      </c>
+      <c r="F104" s="0">
+        <v>0</v>
+      </c>
+      <c r="G104" s="0">
+        <v>0.0050000000000030211</v>
+      </c>
+      <c r="H104" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.25286301650799042</v>
+      </c>
+      <c r="F105" s="0">
+        <v>0</v>
+      </c>
+      <c r="G105" s="0">
+        <v>0.023418461982717978</v>
+      </c>
+      <c r="H105" s="0">
+        <v>0.11577946007481865</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0.23953724401802357</v>
+      </c>
+      <c r="F106" s="0">
+        <v>0</v>
+      </c>
+      <c r="G106" s="0">
+        <v>0.010899626437299942</v>
+      </c>
+      <c r="H106" s="0">
+        <v>0.0012864977872515801</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0.29723666746669908</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0</v>
+      </c>
+      <c r="G107" s="0">
+        <v>0.005000000000006625</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="E108" s="0">
+        <v>0.25848198767893904</v>
+      </c>
+      <c r="F108" s="0">
+        <v>0</v>
+      </c>
+      <c r="G108" s="0">
+        <v>0.012391280449473739</v>
+      </c>
+      <c r="H108" s="0">
+        <v>0.0028151621618379779</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0.23953724766311477</v>
+      </c>
+      <c r="F109" s="0">
+        <v>0</v>
+      </c>
+      <c r="G109" s="0">
+        <v>0.010899705234745002</v>
+      </c>
+      <c r="H109" s="0">
+        <v>0.0012854417448145293</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0.29723666746669908</v>
+      </c>
+      <c r="F110" s="0">
+        <v>0</v>
+      </c>
+      <c r="G110" s="0">
+        <v>0.005000000000004539</v>
+      </c>
+      <c r="H110" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0.2584749915859989</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0</v>
+      </c>
+      <c r="G111" s="0">
+        <v>0.01554306910511147</v>
+      </c>
+      <c r="H111" s="0">
+        <v>0.095545807774734481</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0.23953724340527768</v>
+      </c>
+      <c r="F112" s="0">
+        <v>0</v>
+      </c>
+      <c r="G112" s="0">
+        <v>0.010899611877247547</v>
+      </c>
+      <c r="H112" s="0">
+        <v>0.0012867312625809504</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0.29723666746669908</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0</v>
+      </c>
+      <c r="G113" s="0">
+        <v>0.005000000000006625</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0.25848198767893904</v>
+      </c>
+      <c r="F114" s="0">
+        <v>0</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0.012391280449473739</v>
+      </c>
+      <c r="H114" s="0">
+        <v>0.0028151621618379779</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.23953724766311477</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0</v>
+      </c>
+      <c r="G115" s="0">
+        <v>0.010899705234745002</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0.0012854417448145293</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F116" s="0">
+        <v>0</v>
+      </c>
+      <c r="G116" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H116" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.24787789137363411</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0</v>
+      </c>
+      <c r="G117" s="0">
+        <v>0.039596167748789962</v>
+      </c>
+      <c r="H117" s="0">
+        <v>0.21558421901608238</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0.23675246363231936</v>
+      </c>
+      <c r="F118" s="0">
+        <v>0</v>
+      </c>
+      <c r="G118" s="0">
+        <v>0.010921735576604785</v>
+      </c>
+      <c r="H118" s="0">
+        <v>0.0014382762604767429</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F119" s="0">
+        <v>0</v>
+      </c>
+      <c r="G119" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="E120" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F120" s="0">
+        <v>0</v>
+      </c>
+      <c r="G120" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H120" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E121" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F121" s="0">
+        <v>0</v>
+      </c>
+      <c r="G121" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H121" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="E122" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F122" s="0">
+        <v>0</v>
+      </c>
+      <c r="G122" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H122" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E123" s="0">
+        <v>0.25194474463930122</v>
+      </c>
+      <c r="F123" s="0">
+        <v>0</v>
+      </c>
+      <c r="G123" s="0">
+        <v>0.023307609251246766</v>
+      </c>
+      <c r="H123" s="0">
+        <v>0.10559511414999372</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="E124" s="0">
+        <v>0.23675246384497906</v>
+      </c>
+      <c r="F124" s="0">
+        <v>0</v>
+      </c>
+      <c r="G124" s="0">
+        <v>0.010921742282644545</v>
+      </c>
+      <c r="H124" s="0">
+        <v>0.0014381234340439645</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="E125" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F125" s="0">
+        <v>0</v>
+      </c>
+      <c r="G125" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E126" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F126" s="0">
+        <v>0</v>
+      </c>
+      <c r="G126" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H126" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="E127" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F127" s="0">
+        <v>0</v>
+      </c>
+      <c r="G127" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H127" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="E128" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F128" s="0">
+        <v>0</v>
+      </c>
+      <c r="G128" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H128" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="E129" s="0">
+        <v>0.25839680912238688</v>
+      </c>
+      <c r="F129" s="0">
+        <v>0</v>
+      </c>
+      <c r="G129" s="0">
+        <v>0.015642546571102419</v>
+      </c>
+      <c r="H129" s="0">
+        <v>0.087801621217124634</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="E130" s="0">
+        <v>0.23675246409590467</v>
+      </c>
+      <c r="F130" s="0">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0">
+        <v>0.010921747522497943</v>
+      </c>
+      <c r="H130" s="0">
+        <v>0.0014380808313488546</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="E131" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F131" s="0">
+        <v>0</v>
+      </c>
+      <c r="G131" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H131" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="E132" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F132" s="0">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H132" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="E133" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F133" s="0">
+        <v>0</v>
+      </c>
+      <c r="G133" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H133" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Lane-Change/test/Simulation_Results.xlsx
+++ b/Lane-Change/test/Simulation_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
   <si>
     <t>AttackType</t>
   </si>
@@ -965,6 +965,438 @@
   </si>
   <si>
     <t>POS</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>ACC</t>
   </si>
   <si>
     <t>V2</t>
@@ -1667,7 +2099,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H169"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.26953125" customWidth="true"/>
@@ -5138,6 +5570,942 @@
         <v>0.0014380120804297323</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="E134" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F134" s="0">
+        <v>0</v>
+      </c>
+      <c r="G134" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H134" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="E135" s="0">
+        <v>0.24787789137363411</v>
+      </c>
+      <c r="F135" s="0">
+        <v>0</v>
+      </c>
+      <c r="G135" s="0">
+        <v>0.039596167748789962</v>
+      </c>
+      <c r="H135" s="0">
+        <v>0.21558421901608238</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="E136" s="0">
+        <v>0.23675246363231936</v>
+      </c>
+      <c r="F136" s="0">
+        <v>0</v>
+      </c>
+      <c r="G136" s="0">
+        <v>0.010921735576604785</v>
+      </c>
+      <c r="H136" s="0">
+        <v>0.0014382762604767429</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="E137" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F137" s="0">
+        <v>0</v>
+      </c>
+      <c r="G137" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H137" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="E138" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F138" s="0">
+        <v>0</v>
+      </c>
+      <c r="G138" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H138" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="E139" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F139" s="0">
+        <v>0</v>
+      </c>
+      <c r="G139" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H139" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="E140" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F140" s="0">
+        <v>0</v>
+      </c>
+      <c r="G140" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H140" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="E141" s="0">
+        <v>0.25194474463930122</v>
+      </c>
+      <c r="F141" s="0">
+        <v>0</v>
+      </c>
+      <c r="G141" s="0">
+        <v>0.023307609251246766</v>
+      </c>
+      <c r="H141" s="0">
+        <v>0.10559511414999372</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="E142" s="0">
+        <v>0.23675246384497906</v>
+      </c>
+      <c r="F142" s="0">
+        <v>0</v>
+      </c>
+      <c r="G142" s="0">
+        <v>0.010921742282644545</v>
+      </c>
+      <c r="H142" s="0">
+        <v>0.0014381234340439645</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F143" s="0">
+        <v>0</v>
+      </c>
+      <c r="G143" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H143" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E144" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F144" s="0">
+        <v>0</v>
+      </c>
+      <c r="G144" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H144" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="E145" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F145" s="0">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H145" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="E146" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F146" s="0">
+        <v>0</v>
+      </c>
+      <c r="G146" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H146" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="E147" s="0">
+        <v>0.25839680912238688</v>
+      </c>
+      <c r="F147" s="0">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0">
+        <v>0.015642546571102419</v>
+      </c>
+      <c r="H147" s="0">
+        <v>0.087801621217124634</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E148" s="0">
+        <v>0.23675246409590467</v>
+      </c>
+      <c r="F148" s="0">
+        <v>0</v>
+      </c>
+      <c r="G148" s="0">
+        <v>0.010921747522497943</v>
+      </c>
+      <c r="H148" s="0">
+        <v>0.0014380808313488546</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="E149" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F149" s="0">
+        <v>0</v>
+      </c>
+      <c r="G149" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H149" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="E150" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F150" s="0">
+        <v>0</v>
+      </c>
+      <c r="G150" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H150" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="E151" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F151" s="0">
+        <v>0</v>
+      </c>
+      <c r="G151" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H151" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="E152" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F152" s="0">
+        <v>0</v>
+      </c>
+      <c r="G152" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H152" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="E153" s="0">
+        <v>0.24787789137363411</v>
+      </c>
+      <c r="F153" s="0">
+        <v>0</v>
+      </c>
+      <c r="G153" s="0">
+        <v>0.039596167748789962</v>
+      </c>
+      <c r="H153" s="0">
+        <v>0.21558421901608238</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="E154" s="0">
+        <v>0.23675246363231936</v>
+      </c>
+      <c r="F154" s="0">
+        <v>0</v>
+      </c>
+      <c r="G154" s="0">
+        <v>0.010921735576604785</v>
+      </c>
+      <c r="H154" s="0">
+        <v>0.0014382762604767429</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="E155" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F155" s="0">
+        <v>0</v>
+      </c>
+      <c r="G155" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H155" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="E156" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F156" s="0">
+        <v>0</v>
+      </c>
+      <c r="G156" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H156" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="E157" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F157" s="0">
+        <v>0</v>
+      </c>
+      <c r="G157" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H157" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="D158" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E158" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F158" s="0">
+        <v>0</v>
+      </c>
+      <c r="G158" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H158" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="E159" s="0">
+        <v>0.25194474463930122</v>
+      </c>
+      <c r="F159" s="0">
+        <v>0</v>
+      </c>
+      <c r="G159" s="0">
+        <v>0.023307609251246766</v>
+      </c>
+      <c r="H159" s="0">
+        <v>0.10559511414999372</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="E160" s="0">
+        <v>0.23675246384497906</v>
+      </c>
+      <c r="F160" s="0">
+        <v>0</v>
+      </c>
+      <c r="G160" s="0">
+        <v>0.010921742282644545</v>
+      </c>
+      <c r="H160" s="0">
+        <v>0.0014381234340439645</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="E161" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F161" s="0">
+        <v>0</v>
+      </c>
+      <c r="G161" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H161" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="D162" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="E162" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F162" s="0">
+        <v>0</v>
+      </c>
+      <c r="G162" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H162" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="E163" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F163" s="0">
+        <v>0</v>
+      </c>
+      <c r="G163" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H163" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="E164" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F164" s="0">
+        <v>0</v>
+      </c>
+      <c r="G164" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H164" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="E165" s="0">
+        <v>0.25839680912238688</v>
+      </c>
+      <c r="F165" s="0">
+        <v>0</v>
+      </c>
+      <c r="G165" s="0">
+        <v>0.015642546571102419</v>
+      </c>
+      <c r="H165" s="0">
+        <v>0.087801621217124634</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="E166" s="0">
+        <v>0.23675246409590467</v>
+      </c>
+      <c r="F166" s="0">
+        <v>0</v>
+      </c>
+      <c r="G166" s="0">
+        <v>0.010921747522497943</v>
+      </c>
+      <c r="H166" s="0">
+        <v>0.0014380808313488546</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>671</v>
+      </c>
+      <c r="E167" s="0">
+        <v>0.28373118141912956</v>
+      </c>
+      <c r="F167" s="0">
+        <v>0</v>
+      </c>
+      <c r="G167" s="0">
+        <v>0.0074000000000007038</v>
+      </c>
+      <c r="H167" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="E168" s="0">
+        <v>0.25840257796101451</v>
+      </c>
+      <c r="F168" s="0">
+        <v>0</v>
+      </c>
+      <c r="G168" s="0">
+        <v>0.011744797057633594</v>
+      </c>
+      <c r="H168" s="0">
+        <v>0.0028158950574811146</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="E169" s="0">
+        <v>0.23675246363182448</v>
+      </c>
+      <c r="F169" s="0">
+        <v>0</v>
+      </c>
+      <c r="G169" s="0">
+        <v>0.010921740466232488</v>
+      </c>
+      <c r="H169" s="0">
+        <v>0.0014380120804297323</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>